--- a/IO_test1.xlsx
+++ b/IO_test1.xlsx
@@ -70,8 +70,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -89,17 +111,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK37"/>
+  <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -440,7 +484,7 @@
     <col min="1" max="1025" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -457,8 +501,17 @@
         <f>E1-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="O1" s="1">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -472,11 +525,20 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F37" si="0">E2-1</f>
+        <f t="shared" ref="F2:F49" si="0">E2-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -493,10 +555,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -511,10 +582,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -529,10 +609,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -547,10 +636,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -565,10 +663,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -583,10 +690,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -601,8 +717,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -619,8 +744,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -637,8 +771,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -655,8 +798,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -673,8 +825,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="O13" s="1">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -691,8 +852,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -709,8 +879,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -727,8 +906,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="O16" s="1">
+        <v>3</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -745,8 +933,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -763,13 +960,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="O18" s="1">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -781,13 +987,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="O19" s="1">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -799,13 +1014,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="O20" s="1">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -817,13 +1041,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="O21" s="1">
+        <v>3</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -835,13 +1068,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -853,13 +1095,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="O23" s="1">
+        <v>3</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -871,13 +1122,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="O24" s="1">
+        <v>3</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -889,13 +1149,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="O25" s="1">
+        <v>3</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -907,13 +1176,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -925,185 +1203,608 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="O27" s="1">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
+      <c r="O28" s="1">
+        <v>3</v>
+      </c>
+      <c r="P28" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3</v>
+      </c>
+      <c r="P31" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="O43" s="1">
+        <v>3</v>
+      </c>
+      <c r="P43" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="O44" s="1">
+        <v>3</v>
+      </c>
+      <c r="P44" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="O45" s="1">
+        <v>3</v>
+      </c>
+      <c r="P45" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="O46" s="1">
+        <v>3</v>
+      </c>
+      <c r="P46" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>3</v>
+      </c>
+      <c r="P47" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>3</v>
+      </c>
+      <c r="P48" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>3</v>
+      </c>
+      <c r="P49" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/IO_test1.xlsx
+++ b/IO_test1.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -52,6 +52,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +119,522 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="68163766"/>
+        <c:axId val="17478190"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="68163766"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17478190"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17478190"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68163766"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1804680" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -124,8 +644,8 @@
   </sheetPr>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2005,5 +2525,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>